--- a/Projects/Metrics/DSRIP-TR026(Steve)/TR026 - Adherence People with Schizophrenia .xlsx
+++ b/Projects/Metrics/DSRIP-TR026(Steve)/TR026 - Adherence People with Schizophrenia .xlsx
@@ -2213,7 +2213,7 @@
   <dimension ref="A2:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
